--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/10/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ADE/10/seed4/result_data_KNN.xlsx
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.552000000000001</v>
+        <v>-7.529999999999999</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.828</v>
+        <v>-21.721</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.168000000000001</v>
+        <v>-7.269</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>15.746</v>
+        <v>16.158</v>
       </c>
     </row>
     <row r="16">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.676</v>
+        <v>-22.289</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.33</v>
+        <v>-20.2</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.442</v>
+        <v>-8.062000000000001</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.938</v>
+        <v>-22.066</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.596</v>
+        <v>-8.815999999999999</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.498</v>
+        <v>-7.292</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.860000000000001</v>
+        <v>-7.822</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1083,10 +1083,10 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.173999999999999</v>
+        <v>-7.796000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>16.662</v>
+        <v>16.723</v>
       </c>
     </row>
     <row r="39">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>17.108</v>
+        <v>16.788</v>
       </c>
     </row>
     <row r="45">
@@ -1304,10 +1304,10 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.668000000000001</v>
+        <v>-8.401</v>
       </c>
       <c r="E51" t="n">
-        <v>16.71</v>
+        <v>16.634</v>
       </c>
     </row>
     <row r="52">
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-7.792</v>
+        <v>-7.918000000000001</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.668</v>
+        <v>16.532</v>
       </c>
     </row>
     <row r="58">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.732</v>
+        <v>17.601</v>
       </c>
     </row>
     <row r="64">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.496</v>
+        <v>-21.627</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.029999999999999</v>
+        <v>-7.220999999999999</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1627,10 +1627,10 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.928</v>
+        <v>-7.175999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>18.3</v>
+        <v>17.585</v>
       </c>
     </row>
     <row r="71">
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.186</v>
+        <v>-20.043</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.038</v>
+        <v>-21.993</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.890000000000001</v>
+        <v>-8.373000000000001</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.558</v>
+        <v>16.583</v>
       </c>
     </row>
     <row r="100">
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.347999999999999</v>
+        <v>-7.833</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
